--- a/StudentRazorCRUD/wwwroot/StudentData.xlsx
+++ b/StudentRazorCRUD/wwwroot/StudentData.xlsx
@@ -136,53 +136,53 @@
       </c>
     </row>
     <row r="2">
-      <c r="F2" t="s">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="H2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="I2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="J2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="K3" t="s">
+      <c r="A3" t="s">
         <v>10</v>
       </c>
-      <c r="L3" t="s">
+      <c r="B3" t="s">
         <v>11</v>
       </c>
-      <c r="M3" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="N3" t="s">
+      <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="O3" t="s">
+      <c r="E3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="P4" t="s">
+      <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="B4" t="s">
         <v>15</v>
       </c>
-      <c r="R4" t="s">
+      <c r="C4" t="s">
         <v>16</v>
       </c>
-      <c r="S4" t="s">
+      <c r="D4" t="s">
         <v>17</v>
       </c>
-      <c r="T4" t="s">
+      <c r="E4" t="s">
         <v>18</v>
       </c>
     </row>
